--- a/results/mp/tinybert/corona/confidence/210/desired-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/desired-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,193 +40,211 @@
     <t>name</t>
   </si>
   <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>killed</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>warning</t>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>won</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>energy</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>save</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>care</t>
+    <t>share</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>key</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>19</t>
+    <t>$</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
   <si>
     <t>to</t>
+  </si>
+  <si>
+    <t>the</t>
   </si>
 </sst>
 </file>
@@ -584,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -592,10 +610,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -653,13 +671,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -671,19 +689,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -703,13 +721,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -721,19 +739,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="M4">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -753,13 +771,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -771,19 +789,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L5">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="M5">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -795,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -803,37 +821,37 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.96</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C6">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D6">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="K6">
-        <v>0.96875</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -845,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -853,13 +871,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9090909090909091</v>
+        <v>0.7568493150684932</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>221</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>221</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -871,19 +889,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K7">
-        <v>0.9583333333333334</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -903,13 +921,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.875</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -921,19 +939,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="K8">
-        <v>0.9444444444444444</v>
+        <v>0.9361702127659575</v>
       </c>
       <c r="L8">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="M8">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -945,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -953,13 +971,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8376623376623377</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="C9">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -971,19 +989,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K9">
-        <v>0.9411764705882353</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -995,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1003,13 +1021,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8095238095238095</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1021,31 +1039,31 @@
         <v>0</v>
       </c>
       <c r="H10">
+        <v>32</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="L10">
+        <v>32</v>
+      </c>
+      <c r="M10">
+        <v>32</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>4</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10">
-        <v>0.9375</v>
-      </c>
-      <c r="L10">
-        <v>15</v>
-      </c>
-      <c r="M10">
-        <v>15</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1053,13 +1071,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7647058823529411</v>
+        <v>0.2933333333333333</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1071,19 +1089,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K11">
-        <v>0.925</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L11">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="M11">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1103,13 +1121,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6666666666666666</v>
+        <v>0.2433862433862434</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1121,31 +1139,31 @@
         <v>0</v>
       </c>
       <c r="H12">
+        <v>143</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12">
+        <v>0.8717948717948718</v>
+      </c>
+      <c r="L12">
+        <v>34</v>
+      </c>
+      <c r="M12">
+        <v>34</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>5</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L12">
-        <v>24</v>
-      </c>
-      <c r="M12">
-        <v>24</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1153,13 +1171,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5622317596566524</v>
+        <v>0.2306201550387597</v>
       </c>
       <c r="C13">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="D13">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1171,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>102</v>
+        <v>397</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K13">
-        <v>0.8823529411764706</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L13">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="M13">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1195,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1203,13 +1221,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5416666666666666</v>
+        <v>0.1476510067114094</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1221,19 +1239,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="K14">
-        <v>0.8620689655172413</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L14">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="M14">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1245,45 +1263,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.5172413793103449</v>
-      </c>
-      <c r="C15">
-        <v>15</v>
-      </c>
-      <c r="D15">
-        <v>15</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>14</v>
-      </c>
       <c r="J15" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K15">
-        <v>0.8571428571428571</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L15">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="M15">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1295,45 +1289,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.5</v>
-      </c>
-      <c r="C16">
-        <v>14</v>
-      </c>
-      <c r="D16">
-        <v>14</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>14</v>
-      </c>
       <c r="J16" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K16">
-        <v>0.8518518518518519</v>
+        <v>0.8515625</v>
       </c>
       <c r="L16">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="M16">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1345,45 +1315,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.425</v>
-      </c>
-      <c r="C17">
-        <v>34</v>
-      </c>
-      <c r="D17">
-        <v>34</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>46</v>
-      </c>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="K17">
-        <v>0.8461538461538461</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="L17">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="M17">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1395,45 +1341,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.3703703703703703</v>
-      </c>
-      <c r="C18">
-        <v>10</v>
-      </c>
-      <c r="D18">
-        <v>10</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>17</v>
-      </c>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="K18">
-        <v>0.84</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="L18">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M18">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1448,42 +1370,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.3604651162790697</v>
-      </c>
-      <c r="C19">
-        <v>31</v>
-      </c>
-      <c r="D19">
-        <v>31</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>55</v>
-      </c>
+    <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="K19">
-        <v>0.8333333333333334</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L19">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M19">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1495,45 +1393,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="C20">
-        <v>30</v>
-      </c>
-      <c r="D20">
-        <v>30</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>105</v>
-      </c>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K20">
-        <v>0.8333333333333334</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L20">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="M20">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1545,21 +1419,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K21">
-        <v>0.8275862068965517</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="L21">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="M21">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1574,304 +1448,304 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22">
+        <v>0.8018867924528302</v>
+      </c>
+      <c r="L22">
+        <v>85</v>
+      </c>
+      <c r="M22">
+        <v>85</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23">
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="L23">
         <v>46</v>
       </c>
-      <c r="K22">
-        <v>0.8076923076923077</v>
-      </c>
-      <c r="L22">
+      <c r="M23">
+        <v>46</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L24">
         <v>21</v>
       </c>
-      <c r="M22">
+      <c r="M24">
         <v>21</v>
       </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25">
+        <v>0.76</v>
+      </c>
+      <c r="L25">
+        <v>38</v>
+      </c>
+      <c r="M25">
+        <v>38</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K26">
+        <v>0.75</v>
+      </c>
+      <c r="L26">
+        <v>120</v>
+      </c>
+      <c r="M26">
+        <v>120</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27">
+        <v>0.75</v>
+      </c>
+      <c r="L27">
+        <v>21</v>
+      </c>
+      <c r="M27">
+        <v>21</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28">
+        <v>0.7301587301587301</v>
+      </c>
+      <c r="L28">
+        <v>46</v>
+      </c>
+      <c r="M28">
+        <v>46</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K23">
-        <v>0.8</v>
-      </c>
-      <c r="L23">
-        <v>16</v>
-      </c>
-      <c r="M23">
-        <v>16</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
+      <c r="K29">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L29">
+        <v>20</v>
+      </c>
+      <c r="M29">
+        <v>20</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K24">
-        <v>0.7981220657276995</v>
-      </c>
-      <c r="L24">
-        <v>170</v>
-      </c>
-      <c r="M24">
-        <v>170</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
+      <c r="K30">
+        <v>0.7127659574468085</v>
+      </c>
+      <c r="L30">
+        <v>67</v>
+      </c>
+      <c r="M30">
+        <v>67</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K25">
-        <v>0.7948717948717948</v>
-      </c>
-      <c r="L25">
-        <v>31</v>
-      </c>
-      <c r="M25">
-        <v>31</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
+      <c r="K31">
+        <v>0.7101827676240209</v>
+      </c>
+      <c r="L31">
+        <v>272</v>
+      </c>
+      <c r="M31">
+        <v>272</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K26">
-        <v>0.7894736842105263</v>
-      </c>
-      <c r="L26">
-        <v>15</v>
-      </c>
-      <c r="M26">
-        <v>15</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K27">
-        <v>0.7843137254901961</v>
-      </c>
-      <c r="L27">
-        <v>40</v>
-      </c>
-      <c r="M27">
-        <v>40</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K28">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L28">
+      <c r="K32">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="L32">
+        <v>24</v>
+      </c>
+      <c r="M32">
+        <v>24</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>10</v>
-      </c>
-      <c r="M28">
-        <v>10</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K29">
-        <v>0.7397260273972602</v>
-      </c>
-      <c r="L29">
-        <v>54</v>
-      </c>
-      <c r="M29">
-        <v>54</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K30">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="L30">
-        <v>16</v>
-      </c>
-      <c r="M30">
-        <v>16</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K31">
-        <v>0.72</v>
-      </c>
-      <c r="L31">
-        <v>18</v>
-      </c>
-      <c r="M31">
-        <v>18</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K32">
-        <v>0.72</v>
-      </c>
-      <c r="L32">
-        <v>18</v>
-      </c>
-      <c r="M32">
-        <v>18</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>7</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K33">
-        <v>0.6976744186046512</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L33">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="M33">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1883,47 +1757,47 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K34">
-        <v>0.696969696969697</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="L34">
+        <v>42</v>
+      </c>
+      <c r="M34">
+        <v>42</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
         <v>23</v>
-      </c>
-      <c r="M34">
-        <v>23</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>10</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K35">
-        <v>0.6666666666666666</v>
+        <v>0.6411764705882353</v>
       </c>
       <c r="L35">
-        <v>20</v>
+        <v>218</v>
       </c>
       <c r="M35">
-        <v>20</v>
+        <v>218</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1935,21 +1809,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>10</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K36">
-        <v>0.6597222222222222</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="L36">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="M36">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1961,21 +1835,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K37">
-        <v>0.65</v>
+        <v>0.625</v>
       </c>
       <c r="L37">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M37">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1987,21 +1861,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K38">
-        <v>0.6470588235294118</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="L38">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="M38">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2013,21 +1887,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="K39">
-        <v>0.5869565217391305</v>
+        <v>0.6169491525423729</v>
       </c>
       <c r="L39">
-        <v>54</v>
+        <v>182</v>
       </c>
       <c r="M39">
-        <v>54</v>
+        <v>182</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2039,21 +1913,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>38</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="K40">
-        <v>0.5428571428571428</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L40">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M40">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2065,21 +1939,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="K41">
-        <v>0.5416666666666666</v>
+        <v>0.5955056179775281</v>
       </c>
       <c r="L41">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M41">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2091,21 +1965,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K42">
-        <v>0.4285714285714285</v>
+        <v>0.575</v>
       </c>
       <c r="L42">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="M42">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2117,21 +1991,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K43">
-        <v>0.3243243243243243</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L43">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M43">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2143,21 +2017,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="K44">
-        <v>0.3125</v>
+        <v>0.5616438356164384</v>
       </c>
       <c r="L44">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="M44">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2169,59 +2043,371 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K45">
-        <v>0.009812667261373774</v>
+        <v>0.5355648535564853</v>
       </c>
       <c r="L45">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="M45">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="N45">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>1110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K46">
+        <v>0.4857142857142857</v>
+      </c>
+      <c r="L46">
+        <v>34</v>
+      </c>
+      <c r="M46">
+        <v>34</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K47">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="L47">
+        <v>36</v>
+      </c>
+      <c r="M47">
+        <v>36</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K48">
+        <v>0.4468085106382979</v>
+      </c>
+      <c r="L48">
+        <v>21</v>
+      </c>
+      <c r="M48">
+        <v>21</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K49">
+        <v>0.390625</v>
+      </c>
+      <c r="L49">
+        <v>25</v>
+      </c>
+      <c r="M49">
+        <v>25</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K50">
+        <v>0.1637931034482759</v>
+      </c>
+      <c r="L50">
+        <v>19</v>
+      </c>
+      <c r="M50">
+        <v>19</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K51">
+        <v>0.02583333333333333</v>
+      </c>
+      <c r="L51">
+        <v>31</v>
+      </c>
+      <c r="M51">
+        <v>31</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K46">
-        <v>0.007445589919816724</v>
-      </c>
-      <c r="L46">
-        <v>13</v>
-      </c>
-      <c r="M46">
-        <v>13</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>1733</v>
+      <c r="K52">
+        <v>0.02237136465324385</v>
+      </c>
+      <c r="L52">
+        <v>20</v>
+      </c>
+      <c r="M52">
+        <v>20</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K53">
+        <v>0.01432078559738134</v>
+      </c>
+      <c r="L53">
+        <v>35</v>
+      </c>
+      <c r="M53">
+        <v>36</v>
+      </c>
+      <c r="N53">
+        <v>0.97</v>
+      </c>
+      <c r="O53">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K54">
+        <v>0.01047904191616766</v>
+      </c>
+      <c r="L54">
+        <v>28</v>
+      </c>
+      <c r="M54">
+        <v>29</v>
+      </c>
+      <c r="N54">
+        <v>0.97</v>
+      </c>
+      <c r="O54">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K55">
+        <v>0.009811774128954745</v>
+      </c>
+      <c r="L55">
+        <v>49</v>
+      </c>
+      <c r="M55">
+        <v>51</v>
+      </c>
+      <c r="N55">
+        <v>0.96</v>
+      </c>
+      <c r="O55">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>4945</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K56">
+        <v>0.007407407407407408</v>
+      </c>
+      <c r="L56">
+        <v>23</v>
+      </c>
+      <c r="M56">
+        <v>25</v>
+      </c>
+      <c r="N56">
+        <v>0.92</v>
+      </c>
+      <c r="O56">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K57">
+        <v>0.007164317078807488</v>
+      </c>
+      <c r="L57">
+        <v>31</v>
+      </c>
+      <c r="M57">
+        <v>32</v>
+      </c>
+      <c r="N57">
+        <v>0.97</v>
+      </c>
+      <c r="O57">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>4296</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K58">
+        <v>0.006394109668668863</v>
+      </c>
+      <c r="L58">
+        <v>33</v>
+      </c>
+      <c r="M58">
+        <v>37</v>
+      </c>
+      <c r="N58">
+        <v>0.89</v>
+      </c>
+      <c r="O58">
+        <v>0.11</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>5128</v>
       </c>
     </row>
   </sheetData>
